--- a/data/trans_orig/P36B10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B10_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3F0309C-88BC-47A5-B66D-23340688CB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B9C1C5-A703-4B67-87C6-B57663AF30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03DC6BFF-1787-4744-862E-52C52E9F4D8F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{643B3CED-FC50-47FB-A907-03349AD42B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>12,75%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>Uno por semana</t>
@@ -104,28 +104,28 @@
     <t>49,24%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,28 +134,28 @@
     <t>38,01%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
   </si>
   <si>
     <t>39,93%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>51,54%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
   </si>
   <si>
     <t>37,34%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -251,403 +251,400 @@
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1934DB-F90F-42EE-94F6-50BFC2A1CC28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B82287-A25B-4A72-98B7-784D1C22DCBF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1888,10 +1885,10 @@
         <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1903,13 @@
         <v>290995</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>559</v>
@@ -1921,13 +1918,13 @@
         <v>362805</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>862</v>
@@ -1936,13 +1933,13 @@
         <v>653800</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +1995,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2010,13 +2007,13 @@
         <v>54110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -2025,13 +2022,13 @@
         <v>43953</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -2040,13 +2037,13 @@
         <v>98063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2058,13 @@
         <v>282175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -2076,13 +2073,13 @@
         <v>254127</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>724</v>
@@ -2091,13 +2088,13 @@
         <v>536302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2109,13 @@
         <v>262795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>517</v>
@@ -2127,13 +2124,13 @@
         <v>297561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -2142,13 +2139,13 @@
         <v>560356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,7 +2201,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2216,13 +2213,13 @@
         <v>45947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -2231,13 +2228,13 @@
         <v>67083</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -2246,13 +2243,13 @@
         <v>113031</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2264,13 @@
         <v>306563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>765</v>
@@ -2282,13 +2279,13 @@
         <v>425434</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>1213</v>
@@ -2297,13 +2294,13 @@
         <v>731997</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2315,13 @@
         <v>343052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>828</v>
@@ -2336,7 +2333,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>174</v>
@@ -2554,13 +2551,13 @@
         <v>3206539</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2613,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
